--- a/Documentos/Diagrama de Gantt.xlsx
+++ b/Documentos/Diagrama de Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javierlegua/Sites/Tragamillas/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC48E44-104A-0745-A0B7-0D822A078905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF1193D-426B-024D-8843-30795113E370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{12488819-22EA-A54C-943A-9A90E1604DFC}"/>
+    <workbookView minimized="1" xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{12488819-22EA-A54C-943A-9A90E1604DFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>TAREAS MAKELELES</t>
   </si>
@@ -166,6 +166,27 @@
   </si>
   <si>
     <t>DWEC (Raúl, Ángel y Javier)</t>
+  </si>
+  <si>
+    <t>2 horas</t>
+  </si>
+  <si>
+    <t>1 hora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora </t>
+  </si>
+  <si>
+    <t>3 horas</t>
+  </si>
+  <si>
+    <t>8 horas</t>
+  </si>
+  <si>
+    <t>9 horas</t>
+  </si>
+  <si>
+    <t>9 horas(estimación)</t>
   </si>
 </sst>
 </file>
@@ -198,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +274,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -518,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -699,6 +756,58 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DFA755-64A8-1A41-8A4F-04703DC443A3}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:C48"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1025,348 +1134,555 @@
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="33"/>
-    </row>
-    <row r="8" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
+    </row>
+    <row r="8" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="36"/>
-    </row>
-    <row r="9" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="65"/>
+    </row>
+    <row r="9" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="36"/>
-    </row>
-    <row r="10" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="65"/>
+      <c r="E9" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="63"/>
+    </row>
+    <row r="10" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="36"/>
-    </row>
-    <row r="11" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="65"/>
+      <c r="F10" s="63"/>
+    </row>
+    <row r="11" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="36"/>
-    </row>
-    <row r="12" spans="1:3" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="65"/>
+      <c r="E11" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="63"/>
+    </row>
+    <row r="12" spans="1:9" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="39"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
     </row>
-    <row r="14" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="33"/>
-    </row>
-    <row r="16" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+    </row>
+    <row r="16" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
-    </row>
-    <row r="17" spans="1:3" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+    </row>
+    <row r="17" spans="1:16" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="39"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="67"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="27"/>
     </row>
-    <row r="19" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30"/>
     </row>
-    <row r="20" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
-    </row>
-    <row r="21" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="75"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+    </row>
+    <row r="21" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
-    </row>
-    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+    </row>
+    <row r="22" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
-    </row>
-    <row r="23" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+    </row>
+    <row r="23" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
-    </row>
-    <row r="24" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+    </row>
+    <row r="24" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
-    </row>
-    <row r="25" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+    </row>
+    <row r="25" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
-    </row>
-    <row r="26" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+    </row>
+    <row r="26" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
-    </row>
-    <row r="27" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+    </row>
+    <row r="27" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
-    </row>
-    <row r="28" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+    </row>
+    <row r="28" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="35"/>
       <c r="C28" s="36"/>
     </row>
-    <row r="29" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="36"/>
     </row>
-    <row r="30" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
     </row>
-    <row r="31" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="35"/>
       <c r="C31" s="36"/>
     </row>
-    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
     </row>
-    <row r="33" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
     </row>
-    <row r="34" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="36"/>
     </row>
-    <row r="35" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="35"/>
       <c r="C35" s="36"/>
     </row>
-    <row r="36" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="35"/>
       <c r="C36" s="36"/>
     </row>
-    <row r="37" spans="1:3" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="39"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="41" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="40"/>
       <c r="C38" s="42"/>
     </row>
-    <row r="39" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
       <c r="B39" s="44"/>
       <c r="C39" s="45"/>
     </row>
-    <row r="40" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="32"/>
       <c r="C40" s="33"/>
-    </row>
-    <row r="41" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+    </row>
+    <row r="41" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
-    </row>
-    <row r="42" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="M41" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="N41" s="70"/>
+    </row>
+    <row r="42" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
-    </row>
-    <row r="43" spans="1:3" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="70"/>
+      <c r="U42" s="70"/>
+      <c r="V42" s="70"/>
+      <c r="W42" s="70"/>
+    </row>
+    <row r="43" spans="1:24" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="38"/>
       <c r="C43" s="39"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="X43" s="71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="46" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="47"/>
       <c r="C44" s="48"/>
     </row>
-    <row r="45" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
       <c r="C45" s="51"/>
     </row>
-    <row r="46" spans="1:3" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="17" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
         <v>33</v>
       </c>
       <c r="B46" s="53"/>
       <c r="C46" s="54"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="73"/>
+    </row>
+    <row r="47" spans="1:24" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A47" s="56" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="55"/>
       <c r="C47" s="57"/>
     </row>
-    <row r="48" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="58"/>
       <c r="B48" s="59"/>
       <c r="C48" s="60"/>
     </row>
-    <row r="49" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="31" t="s">
         <v>34</v>
       </c>
       <c r="B49" s="32"/>
       <c r="C49" s="33"/>
-    </row>
-    <row r="50" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="78"/>
+    </row>
+    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B50" s="35"/>
       <c r="C50" s="36"/>
     </row>
-    <row r="51" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B51" s="35"/>
       <c r="C51" s="36"/>
     </row>
-    <row r="52" spans="1:3" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
         <v>37</v>
       </c>
@@ -1374,10 +1690,25 @@
       <c r="C52" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="59">
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O42:W42"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I24:P24"/>
+    <mergeCell ref="I27:K27"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D40:L40"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A44:C45"/>
